--- a/biology/Zoologie/Anostomus/Anostomus.xlsx
+++ b/biology/Zoologie/Anostomus/Anostomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Anostomus est un genre de poisson d'eau douce appartenant à la famille des Anostomidae, principalement trouvé dans les cours d'eau tropicaux d'Amérique du Sud. Ces poissons se caractérisent par leur corps allongé et leur mode de vie principalement herbivore.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'anostomus est un genre de poissons d'eau douce appartenant à la famille des Anostomidae. Ces poissons sont réputés pour leur corps allongé et leur capacité à nager dans des positions inclinées, souvent presque verticales, ce qui les distingue dans l'aquarium. Leur coloration varie selon l'espèce, allant souvent du brun doré au rougeâtre, avec des bandes ou des lignes longitudinales plus foncées qui parcourent la longueur de leur corps, ajoutant à leur attrait visuel. Leurs lèvres proéminentes et leur manière de se nourrir sont également caractéristiques, adaptées à leur régime alimentaire qui peut inclure des algues, des petites plantes aquatiques, et parfois des petits invertébrés. Taille adulte, coloration, et comportement peuvent varier significativement selon l'espèce spécifique au sein du genre Anostomus. Ces caractéristiques uniques, combinées à leur comportement fascinant, en font des spécimens prisés par les aquariophiles expérimentés.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Espèces Proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -574,7 +590,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Anostomus sont principalement réparties dans les systèmes fluviaux et les bassins d'eau douce de l'Amérique du Sud, incluant des pays tels que le Venezuela, la Guyane, le Suriname, la Guyane française, le Brésil, et peut-être d'autres régions adjacentes. Ils habitent une variété de milieux aquatiques allant des cours d'eau lents aux rapides, souvent dans des zones où la végétation aquatique est abondante. Ces poissons adaptés à une vie dans des eaux douces tropicales préfèrent des habitats avec des fonds sablonneux ou vaseux, où ils peuvent chercher de la nourriture tout en restant à l'abri des prédateurs. Leur capacité à s'adapter à différents niveaux de courant et leur préférence pour les eaux légèrement acides à neutres soulignent leur résilience et la nécessité de conditions spécifiques pour leur élevage en captivité. La répartition géographique de l'Anostomus témoigne de leur adaptation réussie aux divers environnements fluviaux du continent sud-américain, reflétant la richesse et la complexité des écosystèmes aquatiques de cette région.
 </t>
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anostomus présentent un comportement social et paisible, en faisant d'excellents résidents pour les aquariums communautaires lorsqu'ils sont logés avec des espèces compatibles. Leur nage unique, souvent inclinée ou verticale, est caractéristique de leur genre et peut être un moyen d'explorer leur environnement. Bien qu'ils soient généralement pacifiques, ils peuvent parfois manifester un comportement territorial et agressif envers les poissons de taille similaire ou plus petite, surtout dans des conditions d'aquarium surpeuplées ou mal agencées. Ces poissons omnivores ont une préférence pour un régime alimentaire à base de matériaux végétaux, et peuvent parfois grignoter sur des plantes d'aquarium, nécessitant une sélection prudente des espèces de plantes ou une complémentation alimentaire appropriée. En fournissant un espace adéquat, une alimentation équilibrée et un environnement calme, les Anostomus peuvent exprimer leur comportement naturellement fascinant dans un aquarium d'eau douce.
 </t>
@@ -636,7 +656,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anostomus sont des poissons omnivores avec une forte tendance herbivore, ce qui signifie que leur régime alimentaire dans la nature se compose principalement de matières végétales, incluant des algues, des plantes aquatiques, et parfois des fruits tombés dans l'eau. En aquarium, il est important de reproduire cette diète pour maintenir leur santé et leur bien-être. Cela peut être accompli en leur fournissant une variété d'aliments, y compris des granulés ou des flocons spécifiquement formulés pour les poissons herbivores, ainsi que des légumes frais tels que des épinards blanchis, des pois, des courgettes, et des feuilles de salade. Bien qu'ils puissent également consommer des protéines animales sous forme de vers de vase ou de petites crevettes, ces aliments ne devraient constituer qu'une petite partie de leur régime pour éviter les problèmes de santé liés à une alimentation trop riche en protéines. Une attention particulière à leur régime alimentaire, en mettant l'accent sur les besoins herbivores, assure non seulement une bonne santé mais contribue également à un comportement naturel et à une coloration vive.
 </t>
@@ -667,7 +689,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction des Anostomus en captivité peut être un défi, car elle nécessite des conditions spécifiques qui imitent leur environnement naturel. Dans la nature, leur reproduction est probablement influencée par la saison des pluies, qui stimule un comportement de frai grâce à des changements dans la température de l'eau, le pH, et la disponibilité accrue des aliments. Les Anostomus sont des frayeurs libres, ce qui signifie qu'ils libèrent leurs œufs dans l'eau plutôt que de les déposer sur un substrat spécifique. Les œufs sont ensuite fécondés en pleine eau. Pour encourager la reproduction en aquarium, les aquariophiles doivent souvent ajuster plusieurs paramètres de l'eau, tels que la température, le pH, et la dureté, en plus de fournir une alimentation riche et variée pour stimuler le comportement de frai. Les œufs éclosent après une période d'incubation relativement courte, et les alevins, qui sont initialement très petits, nécessitent des aliments fins comme les infusoires ou le plancton, avant de pouvoir passer à des aliments plus gros. Réussir la reproduction des Anostomus en captivité requiert donc une attention méticuleuse aux détails de leur environnement et de leurs soins.
 </t>
@@ -698,7 +722,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La maintenance des Anostomus en captivité exige une attention particulière à leur habitat et à leurs besoins diététiques pour assurer leur bien-être. Un aquarium d'au moins 200 litres est recommandé pour fournir suffisamment d'espace à ces poissons actifs et pour permettre une bonne qualité de l'eau, essentielle à leur santé. L'environnement de l'aquarium devrait inclure une abondance de cachettes et d'espaces ouverts pour la nage, en utilisant des plantes aquatiques, des racines, et des roches, afin de simuler leur habitat naturel et de répondre à leurs comportements exploratoires. La qualité de l'eau doit être maintenue avec une filtration efficace et des changements d'eau réguliers, en gardant le pH autour de 6,5 à 7,5 et la température entre 24°C et 28°C. Leur régime alimentaire doit refléter leurs besoins omnivores avec une forte préférence pour les végétaux, comprenant des aliments frais, des granulés, et des flocons adaptés aux poissons herbivores. Les Anostomus peuvent cohabiter avec d'autres espèces pacifiques de taille similaire, mais il faut veiller à éviter la surpopulation pour minimiser le stress et les comportements agressifs. En respectant ces exigences, les aquariophiles peuvent créer un environnement stable et enrichissant pour les Anostomus, favorisant leur santé et leur comportement naturel.
 </t>
@@ -729,7 +755,9 @@
           <t>Elevage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'élevage des Anostomus en aquarium nécessite une planification minutieuse et une gestion délicate, surtout lorsqu'il s'agit de reproduire ces poissons et de soigner leurs alevins. Pour commencer, il est crucial de simuler les conditions environnementales propices à la reproduction, ce qui peut impliquer l'ajustement de la température de l'eau, du pH, et de la dureté, ainsi que l'imitation des variations saisonnières pour encourager le frai. Une alimentation de haute qualité, riche en nutriments, est essentielle pour préparer les poissons adultes à la reproduction. Une fois que les œufs sont pondus et fécondés, ils nécessitent un soin attentif pour assurer un taux d'éclosion élevé, ce qui peut inclure le transfert vers un bac d'incubation spécifique où les conditions d'eau peuvent être soigneusement contrôlées pour protéger les œufs et les alevins des maladies et des prédateurs. Les jeunes poissons ont besoin d'une alimentation spécialisée, commençant par des infusoires ou d'autres micro-aliments adaptés à leur petite taille, graduellement remplacés par des aliments plus gros à mesure qu'ils grandissent. L'élevage réussi des Anostomus demande donc une connaissance approfondie de leurs besoins spécifiques en matière de reproduction et de soins aux alevins, ainsi qu'un engagement envers la maintenance d'un environnement aquatique optimal.
